--- a/aplicacao/excluir_lancamentos_paywaye.xlsx
+++ b/aplicacao/excluir_lancamentos_paywaye.xlsx
@@ -14,33 +14,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>38659839000109</t>
+    <t>CNPJ</t>
   </si>
   <si>
-    <t>05937634000199</t>
-  </si>
-  <si>
-    <t>CNPJ</t>
+    <t>TID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,9 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -372,36 +367,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
